--- a/src/test/resources/Tests/ExecutionManager.xlsx
+++ b/src/test/resources/Tests/ExecutionManager.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ddevate\Workspace1\FOCUS-master\src\test\resources\Tests\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ddevate\Documents\State Of Delaware\FOCUS\src\test\resources\Tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>

--- a/src/test/resources/Tests/ExecutionManager.xlsx
+++ b/src/test/resources/Tests/ExecutionManager.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="26">
   <si>
     <t>TC_ID</t>
   </si>
@@ -81,19 +81,22 @@
     <t>TC_04</t>
   </si>
   <si>
-    <t>Person_Create_Deepank</t>
-  </si>
-  <si>
-    <t>Person_Create_Deepank_Data</t>
-  </si>
-  <si>
     <t>WorkbookName</t>
   </si>
   <si>
-    <t>PersonCreationDeepank</t>
-  </si>
-  <si>
     <t>N</t>
+  </si>
+  <si>
+    <t>AutomationScripts_Team1</t>
+  </si>
+  <si>
+    <t>AutomationScriptsTeam1</t>
+  </si>
+  <si>
+    <t>TestCaseSheetTeam1</t>
+  </si>
+  <si>
+    <t>TestCaseSheetTeam1_Data</t>
   </si>
 </sst>
 </file>
@@ -498,7 +501,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection sqref="A1:G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -507,7 +510,7 @@
     <col min="2" max="2" width="26.7109375" style="5" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="8" style="5" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="6.140625" style="5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="23" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.7109375" style="5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="23.28515625" style="5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="28.42578125" style="5" bestFit="1" customWidth="1"/>
   </cols>
@@ -526,7 +529,7 @@
         <v>4</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>7</v>
@@ -543,7 +546,7 @@
         <v>9</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D2" s="4">
         <v>1</v>
@@ -566,7 +569,7 @@
         <v>9</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D3" s="4">
         <v>2</v>
@@ -589,7 +592,7 @@
         <v>12</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D4" s="6">
         <v>1</v>
@@ -612,7 +615,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D5" s="6">
         <v>1</v>
@@ -632,7 +635,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>3</v>
@@ -641,13 +644,13 @@
         <v>1</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
